--- a/resources/ExcelsheetData/RemoveDataConfigTest.xlsx
+++ b/resources/ExcelsheetData/RemoveDataConfigTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="deleteCreatedItem" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="deleteCreatedBrand" sheetId="2" r:id="rId4"/>
     <sheet name="deleteCreatedVendor" sheetId="5" r:id="rId5"/>
     <sheet name="removeCategories" sheetId="6" r:id="rId6"/>
+    <sheet name="removeChildCategories" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -145,6 +146,45 @@
   </si>
   <si>
     <t>TC_RemoveCategory</t>
+  </si>
+  <si>
+    <t>Error ChildCategory Message</t>
+  </si>
+  <si>
+    <t>Only Categories having no Child Categories can be deleted(Please delete all Child Categories)</t>
+  </si>
+  <si>
+    <t>TestCaseId</t>
+  </si>
+  <si>
+    <t>UserNme</t>
+  </si>
+  <si>
+    <t>Taxonomy</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Child category Name</t>
+  </si>
+  <si>
+    <t>Success Message For Remove</t>
+  </si>
+  <si>
+    <t>AutomationTestCat1</t>
+  </si>
+  <si>
+    <t>AutomationTestC1Child</t>
+  </si>
+  <si>
+    <t>RemoveChilDCategory_001</t>
+  </si>
+  <si>
+    <t>noOfChildCategoriesTobeDelete</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -186,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,28 +249,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -240,15 +268,17 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,19 +669,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -697,48 +727,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -752,7 +782,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +808,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -829,42 +859,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -875,10 +905,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,12 +919,13 @@
     <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="50.85546875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="26" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="7" width="86" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="26" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -913,15 +944,18 @@
       <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -936,14 +970,102 @@
       <c r="E2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>12</v>
+      <c r="I2" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ExcelsheetData/RemoveDataConfigTest.xlsx
+++ b/resources/ExcelsheetData/RemoveDataConfigTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="deleteCreatedItem" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="removeCategories" sheetId="6" r:id="rId6"/>
     <sheet name="removeChildCategories" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Item with Part No. : '' removed Successfully</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Manufacturer Name</t>
   </si>
   <si>
@@ -185,6 +182,30 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>RemoveChilDCategory_002</t>
+  </si>
+  <si>
+    <t>RemoveChilDCategory_003</t>
+  </si>
+  <si>
+    <t>AutomationTestCat2</t>
+  </si>
+  <si>
+    <t>AutomationTestCat3</t>
+  </si>
+  <si>
+    <t>AutomationTestC2Child</t>
+  </si>
+  <si>
+    <t>AutomationTestC3Child</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -586,7 +607,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +646,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -643,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -673,21 +694,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -699,7 +720,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -740,18 +761,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
@@ -763,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -809,15 +830,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -829,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -872,15 +893,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -892,10 +913,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -927,36 +948,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>7</v>
@@ -968,19 +989,19 @@
         <v>9</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="I2" s="17" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -991,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1033,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>2</v>
@@ -1024,24 +1045,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -1053,19 +1074,77 @@
         <v>9</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="H2" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ExcelsheetData/RemoveDataConfigTest.xlsx
+++ b/resources/ExcelsheetData/RemoveDataConfigTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="deleteCreatedItem" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="deleteCreatedBrand" sheetId="2" r:id="rId4"/>
     <sheet name="deleteCreatedVendor" sheetId="5" r:id="rId5"/>
     <sheet name="removeCategories" sheetId="6" r:id="rId6"/>
-    <sheet name="removeChildCategories" sheetId="7" r:id="rId7"/>
+    <sheet name="remoeveCreatedProduct" sheetId="8" r:id="rId7"/>
+    <sheet name="removeChildCategories" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -206,6 +207,24 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Remove Success Message</t>
+  </si>
+  <si>
+    <t>TC_PRODUCTS_015</t>
+  </si>
+  <si>
+    <t>AutomationTestProduct</t>
+  </si>
+  <si>
+    <t>Product deleted successfully</t>
   </si>
 </sst>
 </file>
@@ -928,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1011,6 +1030,48 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
